--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>3、开课结课逻辑</t>
+  </si>
+  <si>
+    <t>1、学生详情--报名信息--上课记录</t>
   </si>
 </sst>
 </file>
@@ -84,28 +87,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,8 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,53 +170,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +229,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -236,25 +239,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,35 +435,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,8 +462,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +473,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,31 +530,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,133 +548,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,10 +1048,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
@@ -1112,6 +1115,11 @@
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>1、学生详情--报名信息--上课记录</t>
+  </si>
+  <si>
+    <t>2、老板页面</t>
   </si>
 </sst>
 </file>
@@ -66,8 +69,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,6 +89,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -93,6 +111,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -100,13 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,17 +187,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,46 +212,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,19 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,163 +410,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +433,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -488,30 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,16 +524,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +551,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1051,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
@@ -1120,6 +1123,11 @@
     <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -26,6 +26,9 @@
     <t>概要</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>1、签到</t>
   </si>
   <si>
@@ -56,10 +59,16 @@
     <t>3、开课结课逻辑</t>
   </si>
   <si>
+    <t>需求池</t>
+  </si>
+  <si>
     <t>1、学生详情--报名信息--上课记录</t>
   </si>
   <si>
     <t>2、老板页面</t>
+  </si>
+  <si>
+    <t>3、课程增加每周上课时间</t>
   </si>
 </sst>
 </file>
@@ -67,8 +76,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -90,28 +99,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -120,44 +107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,6 +137,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,28 +241,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -242,37 +251,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,13 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,42 +425,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,84 +432,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,15 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,10 +462,26 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -488,24 +504,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,11 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,133 +560,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,13 +1060,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="31.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="54.6666666666667" customWidth="1"/>
@@ -1068,66 +1077,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>3、课程增加每周上课时间</t>
+  </si>
+  <si>
+    <t>4、一个课程每种费用类型只能有一个</t>
+  </si>
+  <si>
+    <t>5、支付记录表增加关联id，退费关联</t>
   </si>
 </sst>
 </file>
@@ -98,9 +104,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +167,14 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,14 +203,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,87 +240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,6 +448,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,52 +528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,31 +548,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +566,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1150,6 +1156,16 @@
     <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -35,6 +35,9 @@
     <t>课程签到，学生签到</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t xml:space="preserve">2、课程增加，退费流程 </t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>点完提交，调用接口后，跳出确认弹窗，显示调用结果</t>
+  </si>
+  <si>
+    <t>ing</t>
   </si>
   <si>
     <t>2020/6/18--2020/6/31</t>
@@ -82,9 +88,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -112,7 +118,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,7 +133,77 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,30 +224,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,76 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +454,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,17 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,64 +554,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +572,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,12 +1075,12 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="31.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="37.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="54.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1094,78 +1100,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -53,6 +53,15 @@
     <t>ing</t>
   </si>
   <si>
+    <t>一个课程每种费用类型只能有一个</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>支付记录表增加关联id，退费关联</t>
+  </si>
+  <si>
     <t>2020/6/18--2020/6/31</t>
   </si>
   <si>
@@ -65,6 +74,18 @@
     <t>3、开课结课逻辑</t>
   </si>
   <si>
+    <t>学生信息增加报名课程列表数据</t>
+  </si>
+  <si>
+    <t>课程增加每周上课时间</t>
+  </si>
+  <si>
+    <t>教师信息里的授课列表</t>
+  </si>
+  <si>
+    <t>课程管理-课程列表-报名人数字段增加</t>
+  </si>
+  <si>
     <t>需求池</t>
   </si>
   <si>
@@ -72,15 +93,6 @@
   </si>
   <si>
     <t>2、老板页面</t>
-  </si>
-  <si>
-    <t>3、课程增加每周上课时间</t>
-  </si>
-  <si>
-    <t>4、一个课程每种费用类型只能有一个</t>
-  </si>
-  <si>
-    <t>5、支付记录表增加关联id，退费关联</t>
   </si>
 </sst>
 </file>
@@ -89,8 +101,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -110,6 +122,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -118,32 +175,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,92 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +243,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -263,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,8 +472,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -515,55 +566,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,15 +1084,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="37.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="44.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="54.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,54 +1145,75 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>课程管理-课程列表-报名人数字段增加</t>
+  </si>
+  <si>
+    <t>选择报名课时页面美化</t>
   </si>
   <si>
     <t>需求池</t>
@@ -122,9 +125,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,44 +232,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,84 +264,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,25 +278,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,139 +458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,65 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,7 +491,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,16 +549,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1090,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1201,19 +1204,24 @@
         <v>22</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>2、老板页面</t>
+  </si>
+  <si>
+    <t>3、结余处理</t>
+  </si>
+  <si>
+    <t>4、报名抵扣</t>
   </si>
 </sst>
 </file>
@@ -103,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,9 +145,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,7 +199,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,92 +228,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +290,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,169 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +503,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -514,23 +535,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,157 +575,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1222,6 +1228,16 @@
     <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>4、报名抵扣</t>
+  </si>
+  <si>
+    <t>5、登录登出</t>
   </si>
 </sst>
 </file>
@@ -110,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,29 +135,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +178,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -184,7 +195,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,40 +254,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +287,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +389,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,73 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,67 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +478,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,11 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,21 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,42 +578,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -1238,6 +1241,11 @@
     <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28128" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -35,7 +35,7 @@
     <t>课程签到，学生签到</t>
   </si>
   <si>
-    <t>test</t>
+    <t>done</t>
   </si>
   <si>
     <t xml:space="preserve">2、课程增加，退费流程 </t>
@@ -56,15 +56,60 @@
     <t>一个课程每种费用类型只能有一个</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>支付记录表增加关联id，退费关联</t>
   </si>
   <si>
     <t>2020/6/18--2020/6/31</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>1、学生信息编辑页面增加已报名课程展示</t>
+  </si>
+  <si>
+    <t>学生已报名课程，分页接口</t>
+  </si>
+  <si>
+    <t>course/register/search --增加了campus字段标识校区</t>
+  </si>
+  <si>
+    <t>2、教师信息编辑页面薪资配置暂时隐藏</t>
+  </si>
+  <si>
+    <t>教师信息薪资配置暂时不启用--等待需求确认，先页面隐藏</t>
+  </si>
+  <si>
+    <t>3、教师信息编辑页面增加授课列表展示</t>
+  </si>
+  <si>
+    <t>教师授课列表，分页接口</t>
+  </si>
+  <si>
+    <t>新增分页/teacher/course/list/{teacherId}</t>
+  </si>
+  <si>
+    <t>4、课程管理列表页增加字段 每周上课时间</t>
+  </si>
+  <si>
+    <t>课程管理列表页增加字段 每周上课时间</t>
+  </si>
+  <si>
+    <t>接口待沟通</t>
+  </si>
+  <si>
+    <t>5、用户登录</t>
+  </si>
+  <si>
+    <t>登录token、登录校区数据范围限制</t>
+  </si>
+  <si>
+    <t>6、用户登出</t>
+  </si>
+  <si>
+    <t>7、查询页面排查测试</t>
+  </si>
+  <si>
     <t>1、登录</t>
   </si>
   <si>
@@ -72,18 +117,6 @@
   </si>
   <si>
     <t>3、开课结课逻辑</t>
-  </si>
-  <si>
-    <t>学生信息增加报名课程列表数据</t>
-  </si>
-  <si>
-    <t>课程增加每周上课时间</t>
-  </si>
-  <si>
-    <t>教师信息里的授课列表</t>
-  </si>
-  <si>
-    <t>课程管理-课程列表-报名人数字段增加</t>
   </si>
   <si>
     <t>选择报名课时页面美化</t>
@@ -112,12 +145,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,9 +167,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -150,14 +259,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,113 +318,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,6 +328,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,175 +484,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +519,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,56 +542,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,8 +564,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,7 +589,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,140 +637,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1096,16 +1138,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="44.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="54.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="54.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="58.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1162,90 +1205,151 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
+      <c r="A20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12660"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
-    <sheet name="退费原型" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>2020/5/18--2020/5/31</t>
   </si>
@@ -108,6 +107,18 @@
   </si>
   <si>
     <t>7、查询页面排查测试</t>
+  </si>
+  <si>
+    <t>8、课程管理页面增加，校区查询条件</t>
+  </si>
+  <si>
+    <t>课程管理页面增加，校区查询条件</t>
+  </si>
+  <si>
+    <t>9、课程信息报名学员，增加序号id</t>
+  </si>
+  <si>
+    <t>课程信息报名学员，增加序号id ，前端展示用，后端不做操作</t>
   </si>
   <si>
     <t>1、登录</t>
@@ -176,12 +187,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -190,38 +262,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,54 +314,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,29 +329,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,17 +542,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,21 +587,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,7 +611,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,27 +630,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -831,53 +842,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="175260"/>
-          <a:ext cx="8648700" cy="4968240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,17 +1102,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="54.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="54.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="58.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="49.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1297,80 +1261,79 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>37</v>
+      <c r="A27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>38</v>
+      <c r="A30" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/迭代计划.xlsx
+++ b/doc/迭代计划.xlsx
@@ -156,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -193,83 +193,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,19 +230,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,11 +284,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -339,6 +339,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,13 +417,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,37 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,115 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,9 +535,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,11 +594,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,15 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,30 +630,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -639,7 +639,7 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
